--- a/信息表.xlsx
+++ b/信息表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Crossgate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E5C03-46BB-405E-9D50-2AB98AF8427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15925D2F-662E-4BB6-81B4-C4BC8C04200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="1395" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,6 +729,9 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -737,6 +740,9 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -745,6 +751,9 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -979,6 +988,9 @@
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -987,13 +999,19 @@
       <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/信息表.xlsx
+++ b/信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Crossgate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15925D2F-662E-4BB6-81B4-C4BC8C04200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A240DE6B-350D-4526-B768-F8ADAAA5FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1395" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26250" yWindow="5370" windowWidth="15330" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="任务" sheetId="1" r:id="rId1"/>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0D3FE7-F8A7-487A-93B1-478E2749E30E}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,6 +1136,12 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1160,6 +1166,12 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1168,6 +1180,12 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1176,6 +1194,12 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1353,12 +1377,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/信息表.xlsx
+++ b/信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Crossgate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A240DE6B-350D-4526-B768-F8ADAAA5FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BDB6D-FE32-4ED8-9319-BAF435760B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26250" yWindow="5370" windowWidth="15330" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="5565" windowWidth="15330" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="任务" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,6 +1112,9 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1119,6 +1122,9 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1128,6 +1134,9 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1249,7 +1258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1361,20 +1370,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
